--- a/xlsx/OpenSolaris_intext.xlsx
+++ b/xlsx/OpenSolaris_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="504">
   <si>
     <t>OpenSolaris</t>
   </si>
@@ -29,7 +29,7 @@
     <t>软件设计师</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_OpenSolaris</t>
+    <t>政策_政策_维基百科_OpenSolaris</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E7%A8%8B%E8%AF%AD%E8%A8%80</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC</t>
   </si>
   <si>
-    <t>開放原始碼</t>
+    <t>开放原始码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%87%BA%E7%89%88%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>軟件出版週期</t>
+    <t>软件出版周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SPARC</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/ARM%E6%9E%B6%E6%A7%8B</t>
   </si>
   <si>
-    <t>ARM架構</t>
+    <t>ARM架构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E6%A0%B8</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%A1%8A%E6%80%A7%E6%A0%B8%E5%BF%83</t>
   </si>
   <si>
-    <t>整塊性核心</t>
+    <t>整块性核心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A8%E6%88%B7%E7%95%8C%E9%9D%A2</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%87%E9%99%BD%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>昇陽電腦</t>
+    <t>昇阳电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E7%A2%BC</t>
   </si>
   <si>
-    <t>開放原碼</t>
+    <t>开放原码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Solaris</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>智慧財產權</t>
+    <t>智慧财产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla%E5%85%AC%E5%85%B1%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>自由軟體基金會</t>
+    <t>自由软体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla_Suite</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%B4%8D%E6%96%AF%C2%B7%E6%89%98%E7%93%A6%E8%8C%B2</t>
   </si>
   <si>
-    <t>林納斯·托瓦茲</t>
+    <t>林纳斯·托瓦兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%B1%E5%8A%A8%E7%A8%8B%E5%BA%8F</t>
@@ -311,7 +311,7 @@
     <t>http://www.genunix.org/wiki/index.php/Main_Page</t>
   </si>
   <si>
-    <t>Genunix說明文件的用戶推動專案</t>
+    <t>Genunix说明文件的用户推动专案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Sun_Microsystems</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%87%E9%99%BD%E8%AA%8D%E8%AD%89Java%E7%A8%8B%E5%BC%8F%E5%93%A1</t>
   </si>
   <si>
-    <t>昇陽認證Java程式員</t>
+    <t>昇阳认证Java程式员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%87%E9%99%BD%E8%AA%8D%E8%AD%89Java%E5%8A%A9%E7%90%86</t>
   </si>
   <si>
-    <t>昇陽認證Java助理</t>
+    <t>昇阳认证Java助理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SCJD</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1%E6%AD%B7%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
-    <t>作業系統歷史年表</t>
+    <t>作业系统历史年表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F%E4%BD%BF%E7%94%A8%E4%BB%BD%E9%A2%9D</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%85%A7%E6%A0%B8</t>
   </si>
   <si>
-    <t>微內核</t>
+    <t>微内核</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rump_kernel</t>
@@ -545,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%BC%89%E5%85%A5%E6%A0%B8%E5%BF%83%E6%A8%A1%E7%B5%84</t>
   </si>
   <si>
-    <t>可載入核心模組</t>
+    <t>可载入核心模组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E7%94%A8%E8%80%85%E7%A9%BA%E9%96%93</t>
   </si>
   <si>
-    <t>使用者空間</t>
+    <t>使用者空间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%A8%8B%E7%AE%A1%E7%90%86</t>
@@ -563,19 +563,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E4%B8%8B%E6%96%87%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>上下文交換</t>
+    <t>上下文交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%B7</t>
   </si>
   <si>
-    <t>中斷</t>
+    <t>中断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%A8%8B%E9%96%93%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>行程間通訊</t>
+    <t>行程间通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%A8%8B</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%99%82%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>分時系統</t>
+    <t>分时系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%83%E5%BA%A6_(%E8%AE%A1%E7%AE%97%E6%9C%BA)</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AA%E7%92%B0%E5%88%B6</t>
   </si>
   <si>
-    <t>循環制</t>
+    <t>循环制</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Shortest_job_next</t>
@@ -653,13 +653,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6%E9%AB%94%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>記憶體管理</t>
+    <t>记忆体管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90_(%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A7%91%E5%AD%B8)</t>
   </si>
   <si>
-    <t>資源 (計算機科學)</t>
+    <t>资源 (计算机科学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BA%BF%E9%94%99%E8%AF%AF</t>
@@ -677,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6%E9%AB%94%E4%BF%9D%E8%AD%B7</t>
   </si>
   <si>
-    <t>記憶體保護</t>
+    <t>记忆体保护</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%A0%81</t>
   </si>
   <si>
-    <t>分頁</t>
+    <t>分页</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E7%BA%A7%E4%BF%9D%E6%8A%A4%E5%9F%9F</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6%E9%AB%94%E5%8D%80%E6%AE%B5%E9%8C%AF%E8%AA%A4</t>
   </si>
   <si>
-    <t>記憶體區段錯誤</t>
+    <t>记忆体区段错误</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%86%85%E5%AD%98</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%8F%AE%E7%99%BC%E6%80%A7%E8%A8%98%E6%86%B6%E9%AB%94</t>
   </si>
   <si>
-    <t>非揮發性記憶體</t>
+    <t>非挥发性记忆体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E4%BB%B6%E7%B3%BB%E7%BB%9F</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E5%8B%95%E7%A8%8B%E5%BC%8F</t>
   </si>
   <si>
-    <t>啟動程式</t>
+    <t>启动程式</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Defragmentation</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E6%AA%94%E6%A1%88%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>虛擬檔案系統</t>
+    <t>虚拟档案系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Virtual_tape_library</t>
@@ -1007,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E9%AB%94%E6%8A%BD%E8%B1%A1%E5%B1%A4</t>
   </si>
   <si>
-    <t>硬體抽象層</t>
+    <t>硬体抽象层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Live_USB</t>
@@ -1019,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AE%BC%E5%B1%A4</t>
   </si>
   <si>
-    <t>殼層</t>
+    <t>壳层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BD%E4%BB%A4%E8%A1%8C%E7%95%8C%E9%9D%A2</t>
@@ -1067,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>自由軟體</t>
+    <t>自由软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E6%BA%90%E4%BB%A3%E7%A0%81%E8%BD%AF%E4%BB%B6</t>
@@ -1085,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1%E7%9A%84%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>開放原始碼作業系統的比較</t>
+    <t>开放原始码作业系统的比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apple_Darwin</t>
@@ -1127,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E5%AF%A6%E9%A9%97%E5%AE%A4%E4%B9%9D%E8%99%9F%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>貝爾實驗室九號計劃</t>
+    <t>贝尔实验室九号计划</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Open-source_software_development</t>
@@ -1205,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E8%BB%9F%E9%AB%94%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>開放原始碼軟體歷史</t>
+    <t>开放原始码软体历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla</t>
@@ -1223,19 +1223,19 @@
     <t>https://zh.wikipedia.org/wiki/Mozilla_Firefox%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>Mozilla Firefox歷史</t>
+    <t>Mozilla Firefox历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apache%E8%BB%9F%E4%BB%B6%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Apache軟件基金會</t>
+    <t>Apache软件基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Blender%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Blender基金會</t>
+    <t>Blender基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Eclipse%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -1271,13 +1271,13 @@
     <t>https://zh.wikipedia.org/wiki/Linux%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Linux基金會</t>
+    <t>Linux基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mozilla%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Mozilla基金會</t>
+    <t>Mozilla基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%BA%90%E5%9C%B0%E7%90%86%E7%A9%BA%E9%97%B4%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -1301,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/Symbian%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Symbian基金會</t>
+    <t>Symbian基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VideoLAN</t>
@@ -1319,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/Xiph.Org%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>Xiph.Org基金會</t>
+    <t>Xiph.Org基金会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/XMPP_Standards_Foundation</t>
@@ -1331,31 +1331,31 @@
     <t>https://zh.wikipedia.org/wiki/X.Org%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>X.Org基金會</t>
+    <t>X.Org基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%AA%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>文檔基金會</t>
+    <t>文档基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94%E8%87%AA%E7%94%B1%E6%B3%95%E5%BE%8B%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>軟體自由法律中心</t>
+    <t>软体自由法律中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>自由軟體許可證</t>
+    <t>自由软体许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apache%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>Apache許可證</t>
+    <t>Apache许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Artistic_License</t>
@@ -1373,13 +1373,10 @@
     <t>https://zh.wikipedia.org/wiki/GNU%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>GNU通用公共許可證</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/GNU%E8%BC%83%E5%AF%AC%E9%AC%86%E5%85%AC%E5%85%B1%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>GNU較寬鬆公共許可證</t>
+    <t>GNU较宽松公共许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Affero%E9%80%9A%E7%94%A8%E5%85%AC%E5%85%B1%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
@@ -1391,13 +1388,13 @@
     <t>https://zh.wikipedia.org/wiki/ISC%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>ISC許可證</t>
+    <t>ISC许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MIT%E8%A8%B1%E5%8F%AF%E8%AD%89</t>
   </si>
   <si>
-    <t>MIT許可證</t>
+    <t>MIT许可证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%AB%E6%BA%90%E4%BB%A3%E7%A0%81</t>
@@ -1421,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8F%8A%E9%96%8B%E6%94%BE%E5%8E%9F%E5%A7%8B%E7%A2%BC%E8%BB%9F%E9%AB%94%E8%A8%B1%E5%8F%AF%E8%AD%89%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>自由及開放原始碼軟體許可證比較</t>
+    <t>自由及开放原始码软体许可证比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FUD</t>
@@ -1433,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%93%81%E6%8A%B1%E3%80%81%E6%93%B4%E5%85%85%E5%8A%9F%E8%83%BD%E5%86%8D%E6%B6%88%E6%BB%85</t>
   </si>
   <si>
-    <t>擁抱、擴充功能再消滅</t>
+    <t>拥抱、扩充功能再消灭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Binary_blob</t>
@@ -1445,7 +1442,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E7%89%88%E6%AC%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>數位版權管理</t>
+    <t>数位版权管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Free_and_open-source_graphics_device_driver</t>
@@ -1475,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/SCO-Linux%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>SCO-Linux爭議</t>
+    <t>SCO-Linux争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E4%BF%A1%E8%AE%A1%E7%AE%97</t>
@@ -1493,13 +1490,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E7%A4%BE%E7%BE%A4</t>
   </si>
   <si>
-    <t>自由軟體社群</t>
+    <t>自由软体社群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Linux%E7%99%BC%E8%A1%8C%E7%89%88</t>
   </si>
   <si>
-    <t>Linux發行版</t>
+    <t>Linux发行版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E5%88%BB_(%E8%BD%AF%E4%BB%B6%E5%B7%A5%E7%A8%8B)</t>
@@ -1511,7 +1508,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%BB%9F%E9%AB%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>自由軟體運動</t>
+    <t>自由软体运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Microsoft_Open_Specification_Promise</t>
@@ -8628,7 +8625,7 @@
         <v>451</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>60</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8654,10 +8651,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>452</v>
+      </c>
+      <c r="F234" t="s">
         <v>453</v>
-      </c>
-      <c r="F234" t="s">
-        <v>454</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8683,10 +8680,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>454</v>
+      </c>
+      <c r="F235" t="s">
         <v>455</v>
-      </c>
-      <c r="F235" t="s">
-        <v>456</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8712,10 +8709,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>456</v>
+      </c>
+      <c r="F236" t="s">
         <v>457</v>
-      </c>
-      <c r="F236" t="s">
-        <v>458</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -8741,10 +8738,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>458</v>
+      </c>
+      <c r="F237" t="s">
         <v>459</v>
-      </c>
-      <c r="F237" t="s">
-        <v>460</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8770,10 +8767,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>460</v>
+      </c>
+      <c r="F238" t="s">
         <v>461</v>
-      </c>
-      <c r="F238" t="s">
-        <v>462</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8799,10 +8796,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>462</v>
+      </c>
+      <c r="F239" t="s">
         <v>463</v>
-      </c>
-      <c r="F239" t="s">
-        <v>464</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8828,10 +8825,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>464</v>
+      </c>
+      <c r="F240" t="s">
         <v>465</v>
-      </c>
-      <c r="F240" t="s">
-        <v>466</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8857,10 +8854,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>466</v>
+      </c>
+      <c r="F241" t="s">
         <v>467</v>
-      </c>
-      <c r="F241" t="s">
-        <v>468</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8886,10 +8883,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>468</v>
+      </c>
+      <c r="F242" t="s">
         <v>469</v>
-      </c>
-      <c r="F242" t="s">
-        <v>470</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8915,10 +8912,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>470</v>
+      </c>
+      <c r="F243" t="s">
         <v>471</v>
-      </c>
-      <c r="F243" t="s">
-        <v>472</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8944,10 +8941,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>472</v>
+      </c>
+      <c r="F244" t="s">
         <v>473</v>
-      </c>
-      <c r="F244" t="s">
-        <v>474</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8973,10 +8970,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>474</v>
+      </c>
+      <c r="F245" t="s">
         <v>475</v>
-      </c>
-      <c r="F245" t="s">
-        <v>476</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9002,10 +8999,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>476</v>
+      </c>
+      <c r="F246" t="s">
         <v>477</v>
-      </c>
-      <c r="F246" t="s">
-        <v>478</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9031,10 +9028,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>478</v>
+      </c>
+      <c r="F247" t="s">
         <v>479</v>
-      </c>
-      <c r="F247" t="s">
-        <v>480</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9060,10 +9057,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>480</v>
+      </c>
+      <c r="F248" t="s">
         <v>481</v>
-      </c>
-      <c r="F248" t="s">
-        <v>482</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9089,10 +9086,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>482</v>
+      </c>
+      <c r="F249" t="s">
         <v>483</v>
-      </c>
-      <c r="F249" t="s">
-        <v>484</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9118,10 +9115,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>484</v>
+      </c>
+      <c r="F250" t="s">
         <v>485</v>
-      </c>
-      <c r="F250" t="s">
-        <v>486</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9147,10 +9144,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>486</v>
+      </c>
+      <c r="F251" t="s">
         <v>487</v>
-      </c>
-      <c r="F251" t="s">
-        <v>488</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9176,10 +9173,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>488</v>
+      </c>
+      <c r="F252" t="s">
         <v>489</v>
-      </c>
-      <c r="F252" t="s">
-        <v>490</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9205,10 +9202,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>490</v>
+      </c>
+      <c r="F253" t="s">
         <v>491</v>
-      </c>
-      <c r="F253" t="s">
-        <v>492</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9234,10 +9231,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>492</v>
+      </c>
+      <c r="F254" t="s">
         <v>493</v>
-      </c>
-      <c r="F254" t="s">
-        <v>494</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9263,10 +9260,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>494</v>
+      </c>
+      <c r="F255" t="s">
         <v>495</v>
-      </c>
-      <c r="F255" t="s">
-        <v>496</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9292,10 +9289,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>496</v>
+      </c>
+      <c r="F256" t="s">
         <v>497</v>
-      </c>
-      <c r="F256" t="s">
-        <v>498</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9321,10 +9318,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>498</v>
+      </c>
+      <c r="F257" t="s">
         <v>499</v>
-      </c>
-      <c r="F257" t="s">
-        <v>500</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9350,10 +9347,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>500</v>
+      </c>
+      <c r="F258" t="s">
         <v>501</v>
-      </c>
-      <c r="F258" t="s">
-        <v>502</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9379,10 +9376,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>502</v>
+      </c>
+      <c r="F259" t="s">
         <v>503</v>
-      </c>
-      <c r="F259" t="s">
-        <v>504</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
